--- a/data_tpl.xlsx
+++ b/data_tpl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Base Data (all available dimensions[1st row], categories[1st column], options[cells])</t>
   </si>
@@ -35,6 +35,21 @@
     <t>5. Team Climate</t>
   </si>
   <si>
+    <t>6. More</t>
+  </si>
+  <si>
+    <t>7. More</t>
+  </si>
+  <si>
+    <t>8. More</t>
+  </si>
+  <si>
+    <t>9. More</t>
+  </si>
+  <si>
+    <t>10. More</t>
+  </si>
+  <si>
     <t>Type of provider</t>
   </si>
   <si>
@@ -68,6 +83,9 @@
     <t>Morph data (the concrete configuration of options per dimension)</t>
   </si>
   <si>
+    <t>6 Lol</t>
+  </si>
+  <si>
     <t>Line Color (hex)</t>
   </si>
   <si>
@@ -84,6 +102,9 @@
   </si>
   <si>
     <t>grey</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
@@ -93,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -110,13 +131,18 @@
       <name val="Proxima Nova A"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Proxima Nova A"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Proxima Nova A"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,18 +169,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -166,25 +198,10 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -194,143 +211,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -343,7 +236,209 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -353,71 +448,86 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -438,14 +548,15 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff111137"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="ffdddddd"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffa7a7a7"/>
-      <rgbColor rgb="ffdddddd"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -644,17 +755,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -678,14 +789,14 @@
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="111137"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Proxima Nova A"/>
-            <a:ea typeface="Proxima Nova A"/>
-            <a:cs typeface="Proxima Nova A"/>
-            <a:sym typeface="Proxima Nova A"/>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -933,12 +1044,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1225,7 +1336,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1249,14 +1360,14 @@
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="111137"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Proxima Nova A"/>
-            <a:ea typeface="Proxima Nova A"/>
-            <a:cs typeface="Proxima Nova A"/>
-            <a:sym typeface="Proxima Nova A"/>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1510,11 +1621,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1523,131 +1632,196 @@
     <col min="3" max="3" width="16.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1719" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="11" width="14.1719" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" ht="29" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="7">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="A3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="A4" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1666,156 +1840,249 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.3516" style="15" customWidth="1"/>
-    <col min="2" max="6" width="16.3516" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.3516" style="19" customWidth="1"/>
+    <col min="2" max="11" width="16.3516" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" ht="29" customHeight="1">
+      <c r="A2" t="s" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="21">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="21">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="25">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s" s="25">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s" s="25">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s" s="25">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s" s="25">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="15.65" customHeight="1">
+      <c r="A5" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="29" customHeight="1">
-      <c r="A2" t="s" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="17">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="17">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="17">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="18">
+      <c r="B5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="C5" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="20">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="21">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="15.65" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s" s="11">
-        <v>13</v>
+      <c r="K5" t="s" s="15">
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
